--- a/Work/data/irregular_contracts/config.xlsx
+++ b/Work/data/irregular_contracts/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levin/workspace/git-repositories/anaconda/study-pandas-tutorials/Work/data/irregular_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1645ECD1-8CF8-0F43-9399-382B6A324BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410319E7-56B5-A240-826F-9F0D62C39F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{FFFB4D06-E802-B040-998E-B8E321974599}"/>
   </bookViews>
@@ -52,12 +52,6 @@
     <t>乙方名称</t>
   </si>
   <si>
-    <t>情况</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>project_id</t>
   </si>
   <si>
@@ -325,6 +319,14 @@
   </si>
   <si>
     <t>average_ratio_by_division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合规范类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B339047-AAB1-9644-BD03-02EAE95D5B37}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -708,27 +710,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -737,15 +739,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -754,15 +756,15 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -771,15 +773,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -788,15 +790,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -805,15 +807,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -822,15 +824,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -839,15 +841,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -856,15 +858,15 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -873,15 +875,15 @@
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -890,15 +892,15 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -907,12 +909,12 @@
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -924,12 +926,12 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -941,12 +943,12 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -958,15 +960,15 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -975,15 +977,15 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -992,7 +994,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1000,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1009,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1017,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1026,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1034,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1043,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1051,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1060,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1068,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1077,15 +1079,15 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1094,15 +1096,15 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1111,15 +1113,15 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1128,15 +1130,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1145,15 +1147,15 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1162,15 +1164,15 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1179,15 +1181,15 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1196,15 +1198,15 @@
         <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1213,15 +1215,15 @@
         <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1230,15 +1232,15 @@
         <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1247,15 +1249,15 @@
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1264,15 +1266,15 @@
         <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1281,15 +1283,15 @@
         <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1298,15 +1300,15 @@
         <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1315,15 +1317,15 @@
         <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1332,15 +1334,15 @@
         <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1349,15 +1351,15 @@
         <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1366,15 +1368,15 @@
         <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -1383,7 +1385,7 @@
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
